--- a/exemple/canva_planning_entrainements.xlsx
+++ b/exemple/canva_planning_entrainements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoinejamin/Documents/Handball/Applications/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.jamin\Documents\GitHub\generateur-planning-entrainements\exemple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A695AF84-1693-1043-9692-010A25BA99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EBBEC6-F9C6-4565-AE3F-51745696A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14860" xr2:uid="{DC25A53C-9918-DA4B-A995-D9267AE9836D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC25A53C-9918-DA4B-A995-D9267AE9836D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Salle</t>
   </si>
@@ -72,36 +72,15 @@
     <t>Jeudi</t>
   </si>
   <si>
-    <t>U15M</t>
-  </si>
-  <si>
-    <t>Jean Lehay</t>
-  </si>
-  <si>
     <t>Mercredi</t>
   </si>
   <si>
-    <t>U20F/S2F</t>
-  </si>
-  <si>
-    <t>S1F</t>
-  </si>
-  <si>
-    <t>Jean Monnet</t>
-  </si>
-  <si>
     <t>Lundi</t>
   </si>
   <si>
     <t>U17F</t>
   </si>
   <si>
-    <t>S1F/S2F</t>
-  </si>
-  <si>
-    <t>U20F/S3F</t>
-  </si>
-  <si>
     <t>Mardi</t>
   </si>
   <si>
@@ -114,12 +93,6 @@
     <t>U16M</t>
   </si>
   <si>
-    <t>U13F/U15F</t>
-  </si>
-  <si>
-    <t>U19M/S3M</t>
-  </si>
-  <si>
     <t>Loisirs</t>
   </si>
   <si>
@@ -129,46 +102,55 @@
     <t>Samedi</t>
   </si>
   <si>
-    <t>S1M/S2M</t>
-  </si>
-  <si>
-    <t>Hand Adapté</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>1er PAS</t>
-  </si>
-  <si>
-    <t>U10M/U11F</t>
-  </si>
-  <si>
     <t>U12M</t>
   </si>
   <si>
-    <t>Académie</t>
-  </si>
-  <si>
-    <t>Hand Fauteuil</t>
-  </si>
-  <si>
-    <t>Handfit</t>
-  </si>
-  <si>
     <t>U14M</t>
   </si>
   <si>
-    <t>U14M/U16M</t>
-  </si>
-  <si>
-    <t>U12M/U14M</t>
-  </si>
-  <si>
-    <t>montaigne</t>
-  </si>
-  <si>
-    <t>jeudi</t>
+    <t>Hand-Adapté</t>
+  </si>
+  <si>
+    <t>U19M/SM2</t>
+  </si>
+  <si>
+    <t>SM1</t>
+  </si>
+  <si>
+    <t>1ER PAS</t>
+  </si>
+  <si>
+    <t>U10M</t>
+  </si>
+  <si>
+    <t>U11F</t>
+  </si>
+  <si>
+    <t>U13F</t>
+  </si>
+  <si>
+    <t>SF1/SF2</t>
+  </si>
+  <si>
+    <t>SM2/SM3</t>
+  </si>
+  <si>
+    <t>U16F</t>
+  </si>
+  <si>
+    <t>U19M</t>
+  </si>
+  <si>
+    <t>handfauteuil</t>
+  </si>
+  <si>
+    <t>HandFit</t>
+  </si>
+  <si>
+    <t>U11F/U13F</t>
+  </si>
+  <si>
+    <t>LIBRE</t>
   </si>
 </sst>
 </file>
@@ -184,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,12 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,9 +227,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,7 +267,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -382,7 +373,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,21 +533,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F250E377-82E9-5840-A8EA-50FEDBEF16A7}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,182 +564,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C7" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D7" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>0.75</v>
@@ -756,16 +747,16 @@
       <c r="D12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>0.8125</v>
@@ -773,16 +764,16 @@
       <c r="D13" s="2">
         <v>0.875</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>0.875</v>
@@ -790,349 +781,297 @@
       <c r="D14" s="2">
         <v>0.9375</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D15" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.75</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="D17" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.75</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D22" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>0.875</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D25" s="2">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D26" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D27" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8125</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D28" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.875</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="D29" s="2">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
-        <v>0.8125</v>
+        <v>0.5625</v>
       </c>
       <c r="D30" s="2">
-        <v>0.875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
